--- a/com.learncucumber/TestData/Product_Brands.xlsx
+++ b/com.learncucumber/TestData/Product_Brands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumesh\git\Ecommerce_Cucymber_Project\com.learncucumber\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2156E794-5424-4D7B-B25D-08DE5674361E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DAB309-C07D-4B3D-9251-6279A649AE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
